--- a/locustweb/interface.xlsx
+++ b/locustweb/interface.xlsx
@@ -3,7 +3,7 @@
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
-    <s:workbookView activeTab="1"/>
+    <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>直播首页</t>
   </si>
@@ -24,6 +24,9 @@
     <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '2.0', 'group': 'liveHome', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '165', 'method': 'live_msg'}, 'b': {'pageNumber': '1', 'type': '', 'pageSize': '15'}}</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
     <t>APP首页</t>
   </si>
   <si>
@@ -54,46 +57,46 @@
     <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'is_bansay'}, 'b': {'anchorId': '27660'}}</t>
   </si>
   <si>
+    <t>直播间点赞接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'praise'}, 'b': {'liveId': '34944', 'anchorId': '27660'}}</t>
+  </si>
+  <si>
+    <t>我的信息接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'member', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info/home'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>项目列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'project', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'project_list'}, 'b': {'sort': 'hot', 'projectStage': '', 'pageNum': 1, 'name': '', 'projectState': '', 'area': '', 'industry': '', 'pageCount': 15, 'financeMoney': ''}}</t>
+  </si>
+  <si>
+    <t>机构列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'finance_org', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>产品列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'product', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>资讯列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'help', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'find'}, 'b': {}}</t>
+  </si>
+  <si>
     <t>{"anchorId": "27660"}</t>
   </si>
   <si>
-    <t>直播间点赞接口</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'praise'}, 'b': {'liveId': '34944', 'anchorId': '27660'}}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> {"anchorId": "27660","liveId": "34944"}</t>
-  </si>
-  <si>
-    <t>我的信息接口</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'member', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info/home'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>项目列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'project', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'project_list'}, 'b': {'sort': 'hot', 'projectStage': '', 'pageNum': 1, 'name': '', 'projectState': '', 'area': '', 'industry': '', 'pageCount': 15, 'financeMoney': ''}}</t>
-  </si>
-  <si>
-    <t>机构列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'finance_org', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>产品列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'product', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>资讯列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'help', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'find'}, 'b': {}}</t>
   </si>
 </sst>
 </file>
@@ -114,15 +117,42 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +160,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -138,33 +168,8 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -189,7 +194,32 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -204,62 +234,35 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -281,61 +284,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,121 +464,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,36 +475,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,11 +528,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,63 +577,63 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="2" fillId="15" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="2" numFmtId="0"/>
-    <xf borderId="5" fillId="18" fontId="13" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="1" numFmtId="0"/>
+    <xf borderId="5" fillId="5" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="12" numFmtId="0"/>
+    <xf borderId="3" fillId="7" fontId="11" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="10" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="2" numFmtId="0"/>
-    <xf borderId="5" fillId="15" fontId="14" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="1" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="10" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="8" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
-    <xf borderId="4" fillId="16" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="12" numFmtId="0"/>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="9" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="10" numFmtId="0"/>
+    <xf borderId="7" fillId="21" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="10" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="26">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="26"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="30"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="30">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="22"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="46"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="46">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -638,23 +641,23 @@
   <cellStyles count="49">
     <cellStyle builtinId="21" name="输出" xfId="0"/>
     <cellStyle builtinId="9" name="已访问的超链接" xfId="1"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="2"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="3"/>
-    <cellStyle builtinId="20" name="输入" xfId="4"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle builtinId="5" name="百分比" xfId="6"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="7"/>
-    <cellStyle builtinId="28" name="适中" xfId="8"/>
-    <cellStyle builtinId="25" name="汇总" xfId="9"/>
-    <cellStyle builtinId="0" name="常规" xfId="10"/>
-    <cellStyle builtinId="4" name="货币" xfId="11"/>
+    <cellStyle builtinId="26" name="好" xfId="2"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="3"/>
+    <cellStyle builtinId="27" name="差" xfId="4"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="5"/>
+    <cellStyle builtinId="20" name="输入" xfId="6"/>
+    <cellStyle builtinId="5" name="百分比" xfId="7"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="8"/>
+    <cellStyle builtinId="28" name="适中" xfId="9"/>
+    <cellStyle builtinId="25" name="汇总" xfId="10"/>
+    <cellStyle builtinId="22" name="计算" xfId="11"/>
     <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="12"/>
     <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="13"/>
     <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="14"/>
     <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="15"/>
     <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="16"/>
     <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="17"/>
-    <cellStyle builtinId="22" name="计算" xfId="18"/>
+    <cellStyle builtinId="4" name="货币" xfId="18"/>
     <cellStyle builtinId="3" name="千位分隔" xfId="19"/>
     <cellStyle builtinId="15" name="标题" xfId="20"/>
     <cellStyle builtinId="29" name="强调文字颜色 1" xfId="21"/>
@@ -672,8 +675,8 @@
     <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="33"/>
     <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="34"/>
     <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="36"/>
-    <cellStyle builtinId="27" name="差" xfId="37"/>
+    <cellStyle builtinId="0" name="常规" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
     <cellStyle builtinId="10" name="注释" xfId="38"/>
     <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="39"/>
     <cellStyle builtinId="8" name="超链接" xfId="40"/>
@@ -681,7 +684,7 @@
     <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="42"/>
     <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="43"/>
     <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="44"/>
-    <cellStyle builtinId="26" name="好" xfId="45"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
     <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="46"/>
     <cellStyle builtinId="23" name="检查单元格" xfId="47"/>
     <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
@@ -983,8 +986,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1006,6 +1009,9 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" t="n">
         <v>1</v>
       </c>
@@ -1015,10 +1021,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -1029,10 +1038,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -1043,13 +1055,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1057,13 +1072,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1071,16 +1089,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="7" s="4" spans="1:5">
@@ -1093,11 +1111,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+      <c r="D7" t="s">
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1105,13 +1123,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1119,13 +1140,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1133,13 +1157,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="D10" t="s">
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1147,10 +1174,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
+      <c r="D11" t="s">
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -1161,10 +1191,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
+      <c r="D12" t="s">
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -1175,13 +1208,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
+      <c r="D13" t="s">
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1189,10 +1225,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
+      <c r="D14" t="s">
+        <v>2</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -1212,8 +1251,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1225,7 +1264,7 @@
     <col customWidth="1" max="5" min="5" style="1" width="39.25"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" spans="1:5">
+    <row r="1" spans="1:5">
       <c r="A1" t="n">
         <v>1</v>
       </c>
@@ -1235,83 +1274,78 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="n"/>
       <c r="E1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="4" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="n"/>
+        <v>4</v>
+      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="4" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" t="n">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="n"/>
+        <v>6</v>
+      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="4" spans="1:5">
+    <row r="4" spans="1:5">
       <c r="A4" t="n">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="n"/>
+        <v>8</v>
+      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="4" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="n"/>
+        <v>10</v>
+      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="4" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" t="n">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1328,113 +1362,106 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" t="n">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="n"/>
+        <v>8</v>
+      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" t="n">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="n"/>
+        <v>10</v>
+      </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" t="n">
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="n"/>
       <c r="E10" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="4" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" t="n">
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="n"/>
       <c r="E11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="4" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" t="n">
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="n"/>
       <c r="E12" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="4" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" t="n">
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="n"/>
       <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="4" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" t="n">
         <v>14</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="n"/>
       <c r="E14" t="n">
         <v>0</v>
       </c>

--- a/locustweb/interface.xlsx
+++ b/locustweb/interface.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>直播首页</t>
   </si>
@@ -42,55 +42,61 @@
     <t>观众加入房间</t>
   </si>
   <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'join_live'}, 'b': {'liveId': '34944'}}</t>
+  </si>
+  <si>
+    <t>获取观众信息</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info'}, 'b': {'liveId': '34944'}}</t>
+  </si>
+  <si>
+    <t>发言接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'is_bansay'}, 'b': {'anchorId': '27660'}}</t>
+  </si>
+  <si>
+    <t>直播间点赞接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'praise'}, 'b': {'liveId': '34944', 'anchorId': '27660'}}</t>
+  </si>
+  <si>
+    <t>我的信息接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'member', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info/home'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>项目列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'project', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'project_list'}, 'b': {'sort': 'hot', 'projectStage': '', 'pageNum': 1, 'name': '', 'projectState': '', 'area': '', 'industry': '', 'pageCount': 15, 'financeMoney': ''}}</t>
+  </si>
+  <si>
+    <t>机构列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'finance_org', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>产品列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'product', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>资讯列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'help', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'find'}, 'b': {}}</t>
+  </si>
+  <si>
     <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'join_live'}, 'b': {'liveId': ''}}</t>
   </si>
   <si>
-    <t>获取观众信息</t>
-  </si>
-  <si>
     <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info'}, 'b': {'liveId': ''}}</t>
-  </si>
-  <si>
-    <t>发言接口</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'is_bansay'}, 'b': {'anchorId': '27660'}}</t>
-  </si>
-  <si>
-    <t>直播间点赞接口</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'praise'}, 'b': {'liveId': '34944', 'anchorId': '27660'}}</t>
-  </si>
-  <si>
-    <t>我的信息接口</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'member', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info/home'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>项目列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'project', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'project_list'}, 'b': {'sort': 'hot', 'projectStage': '', 'pageNum': 1, 'name': '', 'projectState': '', 'area': '', 'industry': '', 'pageCount': 15, 'financeMoney': ''}}</t>
-  </si>
-  <si>
-    <t>机构列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'finance_org', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>产品列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'product', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>资讯列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'help', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'find'}, 'b': {}}</t>
   </si>
   <si>
     <t>{"anchorId": "27660"}</t>
@@ -579,23 +585,23 @@
   <cellStyleXfs count="49">
     <xf borderId="5" fillId="5" fontId="14" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="12" numFmtId="0"/>
     <xf borderId="3" fillId="7" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
     <xf borderId="4" fillId="0" fontId="13" numFmtId="0"/>
-    <xf borderId="3" fillId="5" fontId="7" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="10" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="32" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="22" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="17" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="11" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="27" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="3" fillId="5" fontId="7" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
     <xf borderId="0" fillId="6" fontId="10" numFmtId="0"/>
@@ -613,8 +619,8 @@
     <xf borderId="0" fillId="28" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="14" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="29" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="12" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0"/>
     <xf borderId="2" fillId="3" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="26" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
@@ -622,7 +628,7 @@
     <xf borderId="0" fillId="9" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="16" fontId="10" numFmtId="0"/>
     <xf borderId="0" fillId="15" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="19" fontId="10" numFmtId="0"/>
     <xf borderId="7" fillId="21" fontId="18" numFmtId="0"/>
     <xf borderId="0" fillId="8" fontId="10" numFmtId="0"/>
@@ -641,23 +647,23 @@
   <cellStyles count="49">
     <cellStyle builtinId="21" name="输出" xfId="0"/>
     <cellStyle builtinId="9" name="已访问的超链接" xfId="1"/>
-    <cellStyle builtinId="26" name="好" xfId="2"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="3"/>
-    <cellStyle builtinId="27" name="差" xfId="4"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="5"/>
-    <cellStyle builtinId="20" name="输入" xfId="6"/>
-    <cellStyle builtinId="5" name="百分比" xfId="7"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="8"/>
-    <cellStyle builtinId="28" name="适中" xfId="9"/>
-    <cellStyle builtinId="25" name="汇总" xfId="10"/>
-    <cellStyle builtinId="22" name="计算" xfId="11"/>
+    <cellStyle builtinId="0" name="常规" xfId="2"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="3"/>
+    <cellStyle builtinId="20" name="输入" xfId="4"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="5"/>
+    <cellStyle builtinId="5" name="百分比" xfId="6"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="7"/>
+    <cellStyle builtinId="28" name="适中" xfId="8"/>
+    <cellStyle builtinId="25" name="汇总" xfId="9"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="10"/>
+    <cellStyle builtinId="4" name="货币" xfId="11"/>
     <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="12"/>
     <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="13"/>
     <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="14"/>
     <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="15"/>
     <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="16"/>
     <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="17"/>
-    <cellStyle builtinId="4" name="货币" xfId="18"/>
+    <cellStyle builtinId="22" name="计算" xfId="18"/>
     <cellStyle builtinId="3" name="千位分隔" xfId="19"/>
     <cellStyle builtinId="15" name="标题" xfId="20"/>
     <cellStyle builtinId="29" name="强调文字颜色 1" xfId="21"/>
@@ -675,8 +681,8 @@
     <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="33"/>
     <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="34"/>
     <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="0" name="常规" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="36"/>
+    <cellStyle builtinId="27" name="差" xfId="37"/>
     <cellStyle builtinId="10" name="注释" xfId="38"/>
     <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="39"/>
     <cellStyle builtinId="8" name="超链接" xfId="40"/>
@@ -684,7 +690,7 @@
     <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="42"/>
     <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="43"/>
     <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="26" name="好" xfId="45"/>
     <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="46"/>
     <cellStyle builtinId="23" name="检查单元格" xfId="47"/>
     <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
@@ -1166,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1183,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1314,7 +1320,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1328,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1345,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1362,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1376,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1390,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>

--- a/locustweb/interface.xlsx
+++ b/locustweb/interface.xlsx
@@ -16,90 +16,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>直播首页</t>
   </si>
   <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '2.0', 'group': 'liveHome', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '165', 'method': 'live_msg'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>APP首页</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'NzU5YjE5NjZlYjY5M2MzMTAxMmNkMDlkMDc0ODg3MDI=', 's': '1505187626308', 'version': '1.0', 'group': 'home', 'deviceId': '000000007f65e78fe6edc17d00000000', 'device': 'Xiaomi:Mi Note 2:23', 'siteId': '1', 'ticket': 'n3Pr93P3VMc=', 'siteVersion': '1115', 'method': 'index'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>直播首页热门</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '2.0', 'group': 'liveHome', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'hot_rank'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>观众加入房间</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'join_live'}, 'b': {'liveId': '35271'}}</t>
+  </si>
+  <si>
+    <t>获取观众信息</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info'}, 'b': {'liveId': '35271'}}</t>
+  </si>
+  <si>
+    <t>发言接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'is_bansay'}, 'b': {'anchorId': '36470'}}</t>
+  </si>
+  <si>
+    <t>直播间点赞接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'praise'}, 'b': {'liveId': '35271', 'anchorId': '36470'}}</t>
+  </si>
+  <si>
+    <t>我的信息接口</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'member', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info/home'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>项目列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'project', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'project_list'}, 'b': {'sort': 'hot', 'projectStage': '', 'pageNum': 1, 'name': '', 'projectState': '', 'area': '', 'industry': '', 'pageCount': 15, 'financeMoney': ''}}</t>
+  </si>
+  <si>
+    <t>机构列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'finance_org', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>产品列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'product', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
+  </si>
+  <si>
+    <t>资讯列表</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'help', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'find'}, 'b': {}}</t>
+  </si>
+  <si>
     <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '2.0', 'group': 'liveHome', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '165', 'method': 'live_msg'}, 'b': {'pageNumber': '1', 'type': '', 'pageSize': '15'}}</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>APP首页</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'NzU5YjE5NjZlYjY5M2MzMTAxMmNkMDlkMDc0ODg3MDI=', 's': '1505187626308', 'version': '1.0', 'group': 'home', 'deviceId': '000000007f65e78fe6edc17d00000000', 'device': 'Xiaomi:Mi Note 2:23', 'siteId': '1', 'ticket': 'n3Pr93P3VMc=', 'siteVersion': '1115', 'method': 'index'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>直播首页热门</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '2.0', 'group': 'liveHome', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'hot_rank'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>观众加入房间</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'join_live'}, 'b': {'liveId': '34944'}}</t>
-  </si>
-  <si>
-    <t>获取观众信息</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info'}, 'b': {'liveId': '34944'}}</t>
-  </si>
-  <si>
-    <t>发言接口</t>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'join_live'}, 'b': {'liveId': ''}}</t>
+  </si>
+  <si>
+    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info'}, 'b': {'liveId': ''}}</t>
   </si>
   <si>
     <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'is_bansay'}, 'b': {'anchorId': '27660'}}</t>
   </si>
   <si>
-    <t>直播间点赞接口</t>
+    <t>{"anchorId": "27660"}</t>
   </si>
   <si>
     <t>{'h': {'appToken': 'YmM4ODdjYmU0N2VhZTYzZGNmZDJmNmQ4ZTQ5ODc3ZjQ=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'RqVidstG31U=', 'siteVersion': '1115', 'method': 'praise'}, 'b': {'liveId': '34944', 'anchorId': '27660'}}</t>
-  </si>
-  <si>
-    <t>我的信息接口</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'member', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info/home'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>项目列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'project', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'project_list'}, 'b': {'sort': 'hot', 'projectStage': '', 'pageNum': 1, 'name': '', 'projectState': '', 'area': '', 'industry': '', 'pageCount': 15, 'financeMoney': ''}}</t>
-  </si>
-  <si>
-    <t>机构列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'finance_org', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>产品列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'product', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'list'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>资讯列表</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'help', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'find'}, 'b': {}}</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'join_live'}, 'b': {'liveId': ''}}</t>
-  </si>
-  <si>
-    <t>{'h': {'appToken': 'M2I2Mzc1ZWVjNTQ1ZTc3ODNlOGIwMzNjMTlhN2RhNjc=', 'version': '1.0', 'group': 'living', 'deviceId': '62e83ba9adea62b770ee297809662af66', 'device': 'iPhone9,1', 'siteId': '0', 'ticket': 'i+M1P0Y6CFk=', 'siteVersion': '1115', 'method': 'info'}, 'b': {'liveId': ''}}</t>
-  </si>
-  <si>
-    <t>{"anchorId": "27660"}</t>
   </si>
   <si>
     <t xml:space="preserve"> {"anchorId": "27660","liveId": "34944"}</t>
@@ -123,7 +132,24 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -146,6 +172,30 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
       <family val="2"/>
       <b val="1"/>
@@ -164,23 +214,6 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <family val="2"/>
       <b val="1"/>
@@ -200,7 +233,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +241,8 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +250,33 @@
       <name val="宋体"/>
       <charset val="0"/>
       <family val="2"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -229,57 +289,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,6 +299,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -302,7 +347,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,163 +419,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +493,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +541,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,17 +561,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,95 +582,73 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="5" fillId="5" fontId="14" numFmtId="0"/>
+    <xf borderId="7" fillId="21" fontId="14" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="12" numFmtId="0"/>
-    <xf borderId="3" fillId="7" fontId="11" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="2" numFmtId="0"/>
+    <xf borderId="6" fillId="15" fontId="13" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0"/>
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="6" fillId="21" fontId="18" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="1" numFmtId="0"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0"/>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="1" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="2" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0"/>
+    <xf borderId="4" fillId="9" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="10" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="17" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="11" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="12" numFmtId="0"/>
-    <xf borderId="3" fillId="5" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="12" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="10" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="19" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0"/>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="12" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="16" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="10" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf borderId="0" fillId="19" fontId="10" numFmtId="0"/>
-    <xf borderId="7" fillId="21" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="8" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="22">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="39">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="22"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="46"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="46">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="39"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="23"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="23">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -647,23 +656,23 @@
   <cellStyles count="49">
     <cellStyle builtinId="21" name="输出" xfId="0"/>
     <cellStyle builtinId="9" name="已访问的超链接" xfId="1"/>
-    <cellStyle builtinId="0" name="常规" xfId="2"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="3"/>
-    <cellStyle builtinId="20" name="输入" xfId="4"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle builtinId="5" name="百分比" xfId="6"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="7"/>
-    <cellStyle builtinId="28" name="适中" xfId="8"/>
-    <cellStyle builtinId="25" name="汇总" xfId="9"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="10"/>
-    <cellStyle builtinId="4" name="货币" xfId="11"/>
+    <cellStyle builtinId="26" name="好" xfId="2"/>
+    <cellStyle builtinId="0" name="常规" xfId="3"/>
+    <cellStyle builtinId="27" name="差" xfId="4"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="5"/>
+    <cellStyle builtinId="20" name="输入" xfId="6"/>
+    <cellStyle builtinId="5" name="百分比" xfId="7"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="8"/>
+    <cellStyle builtinId="28" name="适中" xfId="9"/>
+    <cellStyle builtinId="25" name="汇总" xfId="10"/>
+    <cellStyle builtinId="22" name="计算" xfId="11"/>
     <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="12"/>
     <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="13"/>
     <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="14"/>
     <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="15"/>
     <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="16"/>
     <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="17"/>
-    <cellStyle builtinId="22" name="计算" xfId="18"/>
+    <cellStyle builtinId="4" name="货币" xfId="18"/>
     <cellStyle builtinId="3" name="千位分隔" xfId="19"/>
     <cellStyle builtinId="15" name="标题" xfId="20"/>
     <cellStyle builtinId="29" name="强调文字颜色 1" xfId="21"/>
@@ -681,8 +690,8 @@
     <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="33"/>
     <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="34"/>
     <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="36"/>
-    <cellStyle builtinId="27" name="差" xfId="37"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
     <cellStyle builtinId="10" name="注释" xfId="38"/>
     <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="39"/>
     <cellStyle builtinId="8" name="超链接" xfId="40"/>
@@ -690,7 +699,7 @@
     <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="42"/>
     <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="43"/>
     <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="44"/>
-    <cellStyle builtinId="26" name="好" xfId="45"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
     <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="46"/>
     <cellStyle builtinId="23" name="检查单元格" xfId="47"/>
     <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
@@ -990,10 +999,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1087,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1104,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="40.5" r="7" s="4" spans="1:5">
@@ -1121,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1129,16 +1138,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1146,16 +1155,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1163,10 +1172,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -1180,16 +1189,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1197,10 +1206,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -1214,32 +1223,15 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1278,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E1" t="n">
         <v>1</v>
@@ -1320,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1334,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1348,10 +1340,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1365,10 +1357,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1382,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1396,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
